--- a/Stat_Glossary.xlsx
+++ b/Stat_Glossary.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://h20bridge-my.sharepoint.com/personal/jack_getman_h2obridge_com/Documents/Desktop/DatacampNew/Bootcamp_Final_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EB66649-E8B1-457F-ADE6-A0B26ACC29B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{4EB66649-E8B1-457F-ADE6-A0B26ACC29B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{854BCE30-9C90-4FC5-800B-2516DAE53C46}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{163076B9-8690-4197-BC0C-B578B0D41803}"/>
+    <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{163076B9-8690-4197-BC0C-B578B0D41803}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="96">
   <si>
     <t>Age</t>
   </si>
@@ -338,6 +338,12 @@
       </rPr>
       <t> is the ratio of Free Throw Attempts to Field Goal Attempts</t>
     </r>
+  </si>
+  <si>
+    <t>Scaled_Per_Game</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -715,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFD59480-77CC-46CA-AC2B-DECBFEB54818}">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,395 +732,532 @@
     <col min="2" max="2" width="57.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="C42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>19</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B43" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="C44" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>14</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>17</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>18</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>74</v>
+      <c r="C47" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B48" xr:uid="{78C67C37-456A-4998-96AD-33A46263FB67}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B48">
-      <sortCondition ref="A1:A48"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:C47" xr:uid="{AFD59480-77CC-46CA-AC2B-DECBFEB54818}"/>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1" display="https://www.basketball-reference.com/about/bpm.html" xr:uid="{3C2A5C29-B89D-4D4B-AF68-7EB2DBD1F7C6}"/>
-    <hyperlink ref="B18" r:id="rId2" display="https://www.basketball-reference.com/about/ws.html" xr:uid="{4E945332-85F4-432E-AE3F-C0411A4E47D5}"/>
-    <hyperlink ref="B33" r:id="rId3" display="https://www.basketball-reference.com/about/ws.html" xr:uid="{25E7345B-94CB-4113-B542-3A8BF18C0716}"/>
-    <hyperlink ref="B45" r:id="rId4" location="vorp" display="https://www.basketball-reference.com/about/bpm.html - vorp" xr:uid="{E4207B90-1233-43AD-A582-189E9779B4C9}"/>
-    <hyperlink ref="B46" r:id="rId5" display="https://www.basketball-reference.com/about/ws.html" xr:uid="{7A23D396-6987-4398-81F8-4C521F52AA2F}"/>
-    <hyperlink ref="B47" r:id="rId6" display="https://www.basketball-reference.com/about/ws.html" xr:uid="{1183E08C-DE5F-4F1B-BF33-DA56D86EA2D4}"/>
+    <hyperlink ref="B28" r:id="rId1" display="https://www.basketball-reference.com/about/bpm.html" xr:uid="{3C2A5C29-B89D-4D4B-AF68-7EB2DBD1F7C6}"/>
+    <hyperlink ref="B42" r:id="rId2" display="https://www.basketball-reference.com/about/ws.html" xr:uid="{4E945332-85F4-432E-AE3F-C0411A4E47D5}"/>
+    <hyperlink ref="B44" r:id="rId3" display="https://www.basketball-reference.com/about/ws.html" xr:uid="{25E7345B-94CB-4113-B542-3A8BF18C0716}"/>
+    <hyperlink ref="B46" r:id="rId4" location="vorp" display="https://www.basketball-reference.com/about/bpm.html - vorp" xr:uid="{E4207B90-1233-43AD-A582-189E9779B4C9}"/>
+    <hyperlink ref="B47" r:id="rId5" display="https://www.basketball-reference.com/about/ws.html" xr:uid="{7A23D396-6987-4398-81F8-4C521F52AA2F}"/>
+    <hyperlink ref="B41" r:id="rId6" display="https://www.basketball-reference.com/about/ws.html" xr:uid="{1183E08C-DE5F-4F1B-BF33-DA56D86EA2D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
